--- a/Issue 5/Max 128 Issue 5 BOM.xlsx
+++ b/Issue 5/Max 128 Issue 5 BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My Files\Retro Computer\zx spectrum\_clone\max 128\issue5\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B11ADCD6-9421-4D20-A8AD-172F0B828B61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CE240BB-4026-440E-A0FA-9A51C89F12D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10770" yWindow="990" windowWidth="18910" windowHeight="19890" xr2:uid="{AD7F4EE9-5949-443F-8F9E-D7A06FB9AF40}"/>
+    <workbookView xWindow="5200" yWindow="880" windowWidth="18910" windowHeight="19890" xr2:uid="{AD7F4EE9-5949-443F-8F9E-D7A06FB9AF40}"/>
   </bookViews>
   <sheets>
     <sheet name="Max 128 Issue 5" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="244">
   <si>
     <t>Designator</t>
   </si>
@@ -767,6 +767,15 @@
   </si>
   <si>
     <t>732-8966-3-ND</t>
+  </si>
+  <si>
+    <t>OSC 12MHz</t>
+  </si>
+  <si>
+    <t>XC1958CT-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y4x (If use Y4x, don't install Y4, C60, C61) </t>
   </si>
 </sst>
 </file>
@@ -887,7 +896,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -925,6 +934,8 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1242,10 +1253,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D114"/>
+  <dimension ref="A1:D115"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A70" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A89" sqref="A89"/>
+      <selection activeCell="A125" sqref="A125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2803,6 +2814,20 @@
         <v>1</v>
       </c>
     </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A115" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="B115" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="C115" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="D115" s="6">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="58" fitToHeight="0" orientation="portrait" r:id="rId1"/>

--- a/Issue 5/Max 128 Issue 5 BOM.xlsx
+++ b/Issue 5/Max 128 Issue 5 BOM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My Files\Retro Computer\zx spectrum\_clone\max 128\issue5\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CE240BB-4026-440E-A0FA-9A51C89F12D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F69BD83-EE85-4770-92E8-6AEC69EFF990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5200" yWindow="880" windowWidth="18910" windowHeight="19890" xr2:uid="{AD7F4EE9-5949-443F-8F9E-D7A06FB9AF40}"/>
   </bookViews>
@@ -680,10 +680,6 @@
 296-9196-5-ND</t>
   </si>
   <si>
-    <t xml:space="preserve">	
-609-5183-ND</t>
-  </si>
-  <si>
     <t>4606X-101-103LF</t>
   </si>
   <si>
@@ -776,6 +772,9 @@
   </si>
   <si>
     <t xml:space="preserve">Y4x (If use Y4x, don't install Y4, C60, C61) </t>
+  </si>
+  <si>
+    <t>AE10970-ND</t>
   </si>
 </sst>
 </file>
@@ -934,8 +933,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1255,8 +1256,8 @@
   </sheetPr>
   <dimension ref="A1:D115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A125" sqref="A125"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1269,7 +1270,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="18" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.4">
@@ -2089,8 +2090,8 @@
       <c r="B61" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C61" s="1" t="s">
-        <v>212</v>
+      <c r="C61" s="20" t="s">
+        <v>243</v>
       </c>
       <c r="D61" s="6">
         <v>1</v>
@@ -2129,10 +2130,10 @@
         <v>68</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D64" s="6">
         <v>1</v>
@@ -2219,10 +2220,10 @@
         <v>34</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D71" s="6">
         <v>1</v>
@@ -2233,7 +2234,7 @@
         <v>35</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>143</v>
@@ -2247,7 +2248,7 @@
         <v>36</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>143</v>
@@ -2275,10 +2276,10 @@
         <v>113</v>
       </c>
       <c r="B75" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D75" s="6">
         <v>2</v>
@@ -2362,7 +2363,7 @@
         <v>92</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D81" s="6">
         <v>1</v>
@@ -2387,10 +2388,10 @@
         <v>130</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D83" s="6">
         <v>1</v>
@@ -2477,7 +2478,7 @@
         <v>111</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>37</v>
@@ -2522,7 +2523,7 @@
         <v>61</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D93" s="6">
         <v>4</v>
@@ -2550,7 +2551,7 @@
         <v>63</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D95" s="6">
         <v>1</v>
@@ -2564,7 +2565,7 @@
         <v>64</v>
       </c>
       <c r="C96" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D96" s="6">
         <v>1</v>
@@ -2592,7 +2593,7 @@
         <v>94</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D98" s="6">
         <v>1</v>
@@ -2617,10 +2618,10 @@
         <v>98</v>
       </c>
       <c r="B100" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C100" s="1" t="s">
         <v>228</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>229</v>
       </c>
       <c r="D100" s="6">
         <v>1</v>
@@ -2631,7 +2632,7 @@
         <v>106</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>105</v>
@@ -2696,7 +2697,7 @@
         <v>15</v>
       </c>
       <c r="C106" s="17" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D106" s="11">
         <v>2</v>
@@ -2710,7 +2711,7 @@
         <v>13</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D107" s="6">
         <v>2</v>
@@ -2718,13 +2719,13 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B108" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="B108" s="1" t="s">
+      <c r="C108" s="1" t="s">
         <v>239</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>240</v>
       </c>
       <c r="D108" s="6">
         <v>1</v>
@@ -2735,7 +2736,7 @@
         <v>110</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>37</v>
@@ -2752,7 +2753,7 @@
         <v>63</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D110" s="6">
         <v>3</v>
@@ -2760,7 +2761,7 @@
     </row>
     <row r="111" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A111" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>40</v>
@@ -2791,10 +2792,10 @@
         <v>129</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D113" s="6">
         <v>1</v>
@@ -2805,24 +2806,24 @@
         <v>107</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D114" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A115" s="20" t="s">
-        <v>243</v>
-      </c>
-      <c r="B115" s="19" t="s">
+      <c r="A115" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="B115" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="C115" s="16" t="s">
         <v>241</v>
-      </c>
-      <c r="C115" s="19" t="s">
-        <v>242</v>
       </c>
       <c r="D115" s="6">
         <v>1</v>
